--- a/所有快捷键.xlsx
+++ b/所有快捷键.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>ctrl+shift+N</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -45,6 +46,38 @@
   </si>
   <si>
     <t>运行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ctrl+shift+E</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择已打开文件编辑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>命令</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cocos compile -p android</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>构建andorid平台工程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cocos new HelloCpp -p com.oddshou -l cpp -d codes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建工程</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -88,8 +121,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -394,16 +433,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="310" zoomScaleNormal="310" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView zoomScale="310" zoomScaleNormal="310" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="11.625" customWidth="1"/>
     <col min="2" max="2" width="11.5" customWidth="1"/>
+    <col min="3" max="3" width="11.875" customWidth="1"/>
+    <col min="4" max="4" width="16.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
@@ -432,6 +473,58 @@
       </c>
       <c r="D2" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="355" zoomScaleNormal="355" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="12.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" s="2" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" s="1" customFormat="1" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="A3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/所有快捷键.xlsx
+++ b/所有快捷键.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>ctrl+shift+N</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -78,6 +79,89 @@
   </si>
   <si>
     <t>创建工程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AS eclipse</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ctrl+G</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查找使用在项目中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>alt+insert</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自动添加（构造方法）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AS 插件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>alt+insert
+自动生成parcelable接口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生成viewholder
+findviewbyid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Android Parcelable code generator</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AndroidCodeGenerator</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SelectorChapek for Android</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自动生成
+selector</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ctrl+o</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ctrl+f12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ctrl+d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ctrl+y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>excel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>视图-冻结窗格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>固定表头</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -85,7 +169,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -100,16 +184,28 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -117,11 +213,29 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -129,9 +243,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="注释" xfId="1" builtinId="10"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -144,6 +274,55 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>5014</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>15041</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>7154</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>155408</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2270961" y="1674396"/>
+          <a:ext cx="1375746" cy="1844841"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -433,54 +612,100 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView zoomScale="310" zoomScaleNormal="310" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="11.625" customWidth="1"/>
-    <col min="2" max="2" width="11.5" customWidth="1"/>
-    <col min="3" max="3" width="11.875" customWidth="1"/>
-    <col min="4" max="4" width="16.75" customWidth="1"/>
+    <col min="1" max="1" width="11.625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="11.5" style="5" customWidth="1"/>
+    <col min="3" max="3" width="11.875" style="5" customWidth="1"/>
+    <col min="4" max="4" width="16.75" style="5" customWidth="1"/>
+    <col min="5" max="5" width="11.25" style="5" customWidth="1"/>
+    <col min="6" max="6" width="18.25" style="5" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
+    <row r="1" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="6" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
+      <c r="E1" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+      <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="7" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="C3" t="s">
+      <c r="E2" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="27" x14ac:dyDescent="0.15">
+      <c r="C3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="5" t="s">
         <v>9</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="C5" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="C6" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -494,7 +719,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="355" zoomScaleNormal="355" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
@@ -532,4 +757,55 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1:H1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="17.625" customWidth="1"/>
+    <col min="2" max="2" width="12.125" style="3" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="62.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="54.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A4" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/所有快捷键.xlsx
+++ b/所有快捷键.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>ctrl+shift+N</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -162,6 +162,14 @@
   </si>
   <si>
     <t>固定表头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下拉数据选择</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据-数据验证</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -614,8 +622,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -690,6 +698,12 @@
       </c>
       <c r="F3" s="5" t="s">
         <v>20</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
